--- a/01_計画立案/04_反復計画書.xlsx
+++ b/01_計画立案/04_反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEDB1DF-D678-45F6-9213-7B8B73D7A9D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D567E4C-8EA3-4875-9986-393D9FCD2913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1020" windowWidth="10650" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -441,43 +441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品が買える
-飲み物の在庫管理</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おつりの最適化
-釣銭の補充</t>
-    <rPh sb="4" eb="7">
-      <t>サイテキカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツリセン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動販売機システム：商品購入、在庫管理、釣銭補充</t>
     <rPh sb="0" eb="2">
       <t>ジドウ</t>
@@ -758,6 +721,36 @@
     </rPh>
     <rPh sb="118" eb="120">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商品が買える
+</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつりの最適化
+釣銭の補充
+飲み物の在庫管理
+GUIへの移行</t>
+    <rPh sb="4" eb="7">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツリセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1611,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,7 +1629,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="41"/>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1645,7 +1638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1724,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.15">
@@ -1739,13 +1732,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1756,7 +1749,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1800,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
@@ -1830,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2038,15 +2031,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2230,6 +2214,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2237,14 +2230,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0DF2B58-6078-4642-8E41-1E7433D21CDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2258,6 +2243,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
